--- a/BASES/BASE.xlsx
+++ b/BASES/BASE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@Mac\Documentos\Github Repo\Data_Analysis_with_NCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@Mac\Documentos\Github Repo\Data_Analysis_with_NCM\BASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC85C356-72BE-45E2-888C-F34EB616496C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03190BD8-4797-4DC6-8F3D-C421A919EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{F6578BF7-A287-4973-A277-815CD2BEB3F4}"/>
   </bookViews>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="217">
   <si>
     <t>Código da Mercadoria</t>
   </si>
@@ -41,18 +33,12 @@
     <t>Mercadoria</t>
   </si>
   <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
     <t>Preço C</t>
   </si>
   <si>
     <t>Preço de Venda</t>
   </si>
   <si>
-    <t>Fornecedor</t>
-  </si>
-  <si>
     <t>Unidades em Estoque</t>
   </si>
   <si>
@@ -107,12 +93,6 @@
     <t>Comissão2</t>
   </si>
   <si>
-    <t>Cód Barra</t>
-  </si>
-  <si>
-    <t>Cód Fabricante</t>
-  </si>
-  <si>
     <t>ICMS2</t>
   </si>
   <si>
@@ -224,9 +204,6 @@
     <t>DataAlteracaoPreco</t>
   </si>
   <si>
-    <t>Lancamento_Usuario</t>
-  </si>
-  <si>
     <t>Lancamento_DataHora</t>
   </si>
   <si>
@@ -308,9 +285,6 @@
     <t>AliqISS</t>
   </si>
   <si>
-    <t>InformacoesAdicionais</t>
-  </si>
-  <si>
     <t>IAT</t>
   </si>
   <si>
@@ -602,36 +576,18 @@
     <t>FITA BORDA SAFIRA 19MM X 20M - PERFIL PVC</t>
   </si>
   <si>
-    <t>SELECIONE</t>
-  </si>
-  <si>
-    <t>PROADEC BRASIL LTDA</t>
-  </si>
-  <si>
     <t>RL</t>
   </si>
   <si>
     <t>PVC</t>
   </si>
   <si>
-    <t>7909011885909</t>
-  </si>
-  <si>
-    <t>9000000000018</t>
-  </si>
-  <si>
-    <t>JOSÉ FRANCISCO DE CARVALHO JUNIOR</t>
-  </si>
-  <si>
     <t>39204900</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>Resolucao do Senado Federal nº 13/12, Numero da FCI B48D18AA-863D-4CA8-8227-A048038FA612.</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -653,15 +609,6 @@
     <t>FITA BORDA NOGUEIRA IMPERIAL 35MM X 20M - PERFIL PVC</t>
   </si>
   <si>
-    <t>7909011206803</t>
-  </si>
-  <si>
-    <t>9000000000025</t>
-  </si>
-  <si>
-    <t>Resolucao do Senado Federal nº 13/12, Numero da FCI 70C4CE95-110E-4353-A593-9B2D923F3EBF.</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -671,15 +618,6 @@
     <t>FITA BORDA CASTANEA 35MM X 20M - PERFIL PVC</t>
   </si>
   <si>
-    <t>7909011571970</t>
-  </si>
-  <si>
-    <t>9000000000032</t>
-  </si>
-  <si>
-    <t>Resolucao do Senado Federal nº 13/12, Numero da FCI D2F538EF-1306-4EF3-9B25-9FB1FC55BE15.</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -689,15 +627,6 @@
     <t>FITA BORDA BRANCO 1101 TX 19MM X 50M - PERFIL PVC</t>
   </si>
   <si>
-    <t>7909011255399</t>
-  </si>
-  <si>
-    <t>9000000000049</t>
-  </si>
-  <si>
-    <t>Resolucao do Senado Federal nº 13/12, Numero da FCI 4F810080-5ADB-435C-850F-813C743A9D66.</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -707,15 +636,6 @@
     <t>FITA BORDA BRANCO 1101 TX 19MM X 20M - PERFIL PVC</t>
   </si>
   <si>
-    <t>7909011229994</t>
-  </si>
-  <si>
-    <t>9000000000056</t>
-  </si>
-  <si>
-    <t>Resolucao do Senado Federal nº 13/12, Numero da FCI B64D9552-366E-4016-90F1-B880222D470D.</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -725,15 +645,6 @@
     <t>FITA BORDA BRANCO 1101 TX 65MM X 20M - PERFIL PVC</t>
   </si>
   <si>
-    <t>7909011231447</t>
-  </si>
-  <si>
-    <t>9000000000063</t>
-  </si>
-  <si>
-    <t>Resolucao do Senado Federal nº 13/12, Numero da FCI 4AFA57F0-67FC-4997-9402-3274588DABC6.</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -743,15 +654,6 @@
     <t>FITA BORDA PRETO ALTO BRILHO 35MM X 20M - PERFIL PVC</t>
   </si>
   <si>
-    <t>7909011253814</t>
-  </si>
-  <si>
-    <t>9000000000070</t>
-  </si>
-  <si>
-    <t>Resolucao do Senado Federal nº 13/12, Numero da FCI F00DC9D9-2244-481A-A440-94554D6584BF.</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -761,15 +663,6 @@
     <t>FITA BORDA PRETO ALTO BRILHO 65MM X 20M - PERFIL PVC</t>
   </si>
   <si>
-    <t>7909011254071</t>
-  </si>
-  <si>
-    <t>9000000000087</t>
-  </si>
-  <si>
-    <t>Resolucao do Senado Federal nº 13/12, Numero da FCI 8C67D279-FDDF-4ACB-8995-36FB00662D72.</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -777,12 +670,6 @@
   </si>
   <si>
     <t>FITA BORDA FUME 35MM X 20M - PERFIL PVC</t>
-  </si>
-  <si>
-    <t>7909011741861</t>
-  </si>
-  <si>
-    <t>9000000000094</t>
   </si>
   <si>
     <t>9</t>
@@ -1149,15 +1036,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F0740F-AD4A-442C-98A1-33D565DCADF2}">
-  <dimension ref="A1:GF10"/>
+  <dimension ref="A1:FZ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="CI1" sqref="CI1:CI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="102" max="102" width="11.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1704,75 +1594,57 @@
       <c r="FZ1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="GA1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="GB1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="GC1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="GD1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="GE1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="GF1" s="1" t="s">
-        <v>187</v>
-      </c>
     </row>
-    <row r="2" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="C2" s="1">
+        <v>16.149999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>16.149999999999999</v>
+        <v>38.89</v>
       </c>
       <c r="E2" s="1">
-        <v>38.89</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="1">
         <v>18</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="1" t="s">
-        <v>191</v>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
       </c>
       <c r="J2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
         <v>23.09</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="1" t="s">
-        <v>192</v>
+      <c r="M2" s="2"/>
+      <c r="N2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1">
+        <v>35</v>
       </c>
       <c r="Q2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
@@ -1792,14 +1664,14 @@
       <c r="X2" s="1">
         <v>0</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>194</v>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
@@ -1811,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
         <v>0</v>
@@ -1835,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN2" s="1">
         <v>0</v>
@@ -1844,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="AP2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ2" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="1">
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT2" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="1">
         <v>0</v>
@@ -1865,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="AW2" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="1">
         <v>0</v>
@@ -1873,8 +1745,8 @@
       <c r="AY2" s="1">
         <v>0</v>
       </c>
-      <c r="AZ2" s="1">
-        <v>0</v>
+      <c r="AZ2" s="3">
+        <v>44484</v>
       </c>
       <c r="BA2" s="1">
         <v>0</v>
@@ -1885,38 +1757,38 @@
       <c r="BC2" s="1">
         <v>0</v>
       </c>
-      <c r="BD2" s="3">
-        <v>44484</v>
+      <c r="BD2" s="1">
+        <v>0</v>
       </c>
       <c r="BE2" s="1">
-        <v>0</v>
+        <v>32.33</v>
       </c>
       <c r="BF2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="1">
-        <v>32.33</v>
-      </c>
-      <c r="BJ2" s="1">
         <v>1</v>
       </c>
-      <c r="BK2" s="3">
+      <c r="BG2" s="3">
         <v>44494</v>
       </c>
-      <c r="BL2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM2" s="3">
+      <c r="BH2" s="3">
         <v>44519.436493055553</v>
       </c>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
       <c r="BP2" s="1">
         <v>0</v>
       </c>
@@ -1926,18 +1798,14 @@
       <c r="BR2" s="1">
         <v>0</v>
       </c>
-      <c r="BS2" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS2" s="2"/>
       <c r="BT2" s="1">
         <v>0</v>
       </c>
       <c r="BU2" s="1">
         <v>0</v>
       </c>
-      <c r="BV2" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV2" s="2"/>
       <c r="BW2" s="1">
         <v>0</v>
       </c>
@@ -1948,186 +1816,190 @@
       <c r="BZ2" s="1">
         <v>0</v>
       </c>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB2" s="2"/>
       <c r="CC2" s="2"/>
-      <c r="CD2" s="1">
-        <v>0</v>
+      <c r="CD2" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE2" s="1">
         <v>0</v>
       </c>
-      <c r="CF2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
+      <c r="CF2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
       <c r="CI2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>1</v>
       </c>
       <c r="CL2" s="1">
         <v>0</v>
       </c>
-      <c r="CM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ2" s="1">
+      <c r="CM2" s="2"/>
+      <c r="CN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="2"/>
+      <c r="CR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>18</v>
+      </c>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="1">
+        <v>38.89</v>
+      </c>
+      <c r="DD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK2" s="2"/>
+      <c r="DL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM2" s="2"/>
+      <c r="DN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO2" s="2"/>
+      <c r="DP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="DV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX2" s="2"/>
+      <c r="DY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ2" s="2"/>
+      <c r="EA2" s="2"/>
+      <c r="EB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE2" s="2"/>
+      <c r="EF2" s="3">
+        <v>44484.642563807873</v>
+      </c>
+      <c r="EG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="1">
         <v>1</v>
       </c>
-      <c r="CR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS2" s="2"/>
-      <c r="CT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="2"/>
-      <c r="CX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB2" s="1">
-        <v>18</v>
-      </c>
-      <c r="DC2" s="2"/>
-      <c r="DD2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="DE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF2" s="2"/>
-      <c r="DG2" s="2"/>
-      <c r="DH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI2" s="1">
-        <v>38.89</v>
-      </c>
-      <c r="DJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ2" s="2"/>
-      <c r="DR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="2"/>
-      <c r="DT2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU2" s="2"/>
-      <c r="DV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY2" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="EB2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC2" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED2" s="2"/>
-      <c r="EE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF2" s="2"/>
-      <c r="EG2" s="2"/>
-      <c r="EH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK2" s="2"/>
-      <c r="EL2" s="3">
-        <v>44484.642563807873</v>
-      </c>
-      <c r="EM2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER2" s="1">
-        <v>0</v>
-      </c>
       <c r="ES2" s="1">
-        <v>0</v>
+        <v>42.489766080000003</v>
       </c>
       <c r="ET2" s="1">
         <v>0</v>
@@ -2135,17 +2007,11 @@
       <c r="EU2" s="1">
         <v>0</v>
       </c>
-      <c r="EV2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW2" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX2" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV2" s="2"/>
+      <c r="EW2" s="2"/>
+      <c r="EX2" s="2"/>
       <c r="EY2" s="1">
-        <v>42.489766080000003</v>
+        <v>0</v>
       </c>
       <c r="EZ2" s="1">
         <v>0</v>
@@ -2153,12 +2019,14 @@
       <c r="FA2" s="1">
         <v>0</v>
       </c>
-      <c r="FB2" s="2"/>
+      <c r="FB2" s="1">
+        <v>0</v>
+      </c>
       <c r="FC2" s="2"/>
-      <c r="FD2" s="2"/>
-      <c r="FE2" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="2"/>
       <c r="FF2" s="1">
         <v>0</v>
       </c>
@@ -2168,14 +2036,16 @@
       <c r="FH2" s="1">
         <v>0</v>
       </c>
-      <c r="FI2" s="2"/>
+      <c r="FI2" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ2" s="1">
         <v>0</v>
       </c>
-      <c r="FK2" s="2"/>
-      <c r="FL2" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL2" s="2"/>
       <c r="FM2" s="1">
         <v>0</v>
       </c>
@@ -2188,10 +2058,10 @@
       <c r="FP2" s="1">
         <v>0</v>
       </c>
-      <c r="FQ2" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR2" s="2"/>
+      <c r="FQ2" s="2"/>
+      <c r="FR2" s="1">
+        <v>0</v>
+      </c>
       <c r="FS2" s="1">
         <v>0</v>
       </c>
@@ -2201,82 +2071,66 @@
       <c r="FU2" s="1">
         <v>0</v>
       </c>
-      <c r="FV2" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV2" s="2"/>
       <c r="FW2" s="2"/>
-      <c r="FX2" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX2" s="2"/>
       <c r="FY2" s="1">
         <v>0</v>
       </c>
       <c r="FZ2" s="1">
         <v>0</v>
       </c>
-      <c r="GA2" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB2" s="2"/>
-      <c r="GC2" s="2"/>
-      <c r="GD2" s="2"/>
-      <c r="GE2" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
+      </c>
+      <c r="C3" s="1">
+        <v>30.67</v>
       </c>
       <c r="D3" s="1">
-        <v>30.67</v>
+        <v>64.45</v>
       </c>
       <c r="E3" s="1">
-        <v>64.45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="1">
         <v>17</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="1" t="s">
-        <v>191</v>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
       </c>
       <c r="J3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>5</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
         <v>43.13</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="1" t="s">
-        <v>192</v>
+      <c r="M3" s="2"/>
+      <c r="N3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" s="1">
+        <v>6</v>
+      </c>
+      <c r="P3" s="1">
+        <v>58</v>
       </c>
       <c r="Q3" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1">
         <v>0</v>
@@ -2296,14 +2150,14 @@
       <c r="X3" s="1">
         <v>0</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>207</v>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
@@ -2315,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
         <v>0</v>
@@ -2339,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="AM3" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN3" s="1">
         <v>0</v>
@@ -2348,19 +2202,19 @@
         <v>0</v>
       </c>
       <c r="AP3" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ3" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="1">
         <v>0</v>
       </c>
       <c r="AS3" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT3" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="1">
         <v>0</v>
@@ -2369,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="AW3" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="1">
         <v>0</v>
@@ -2377,8 +2231,8 @@
       <c r="AY3" s="1">
         <v>0</v>
       </c>
-      <c r="AZ3" s="1">
-        <v>0</v>
+      <c r="AZ3" s="3">
+        <v>44519</v>
       </c>
       <c r="BA3" s="1">
         <v>0</v>
@@ -2389,38 +2243,38 @@
       <c r="BC3" s="1">
         <v>0</v>
       </c>
-      <c r="BD3" s="3">
+      <c r="BD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1">
+        <v>56.07</v>
+      </c>
+      <c r="BF3" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="3">
         <v>44519</v>
       </c>
-      <c r="BE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="1">
-        <v>56.07</v>
-      </c>
-      <c r="BJ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK3" s="3">
-        <v>44519</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM3" s="3">
+      <c r="BH3" s="3">
         <v>44536.441469907404</v>
       </c>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>0</v>
+      </c>
       <c r="BP3" s="1">
         <v>0</v>
       </c>
@@ -2430,18 +2284,14 @@
       <c r="BR3" s="1">
         <v>0</v>
       </c>
-      <c r="BS3" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS3" s="2"/>
       <c r="BT3" s="1">
         <v>0</v>
       </c>
       <c r="BU3" s="1">
         <v>0</v>
       </c>
-      <c r="BV3" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV3" s="2"/>
       <c r="BW3" s="1">
         <v>0</v>
       </c>
@@ -2452,186 +2302,190 @@
       <c r="BZ3" s="1">
         <v>0</v>
       </c>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB3" s="2"/>
       <c r="CC3" s="2"/>
-      <c r="CD3" s="1">
-        <v>0</v>
+      <c r="CD3" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE3" s="1">
         <v>0</v>
       </c>
-      <c r="CF3" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
+      <c r="CF3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>0</v>
+      </c>
       <c r="CI3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK3" s="1">
+        <v>1</v>
       </c>
       <c r="CL3" s="1">
         <v>0</v>
       </c>
-      <c r="CM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN3" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="CO3" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ3" s="1">
+      <c r="CM3" s="2"/>
+      <c r="CN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="2"/>
+      <c r="CR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="1">
+        <v>20</v>
+      </c>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC3" s="1">
+        <v>64.45</v>
+      </c>
+      <c r="DD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK3" s="2"/>
+      <c r="DL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="2"/>
+      <c r="DN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="2"/>
+      <c r="DP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DU3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DV3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX3" s="2"/>
+      <c r="DY3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ3" s="2"/>
+      <c r="EA3" s="2"/>
+      <c r="EB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC3" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE3" s="2"/>
+      <c r="EF3" s="3">
+        <v>44484.642565428243</v>
+      </c>
+      <c r="EG3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="1">
         <v>1</v>
       </c>
-      <c r="CR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS3" s="2"/>
-      <c r="CT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="2"/>
-      <c r="CX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB3" s="1">
-        <v>20</v>
-      </c>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="DE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF3" s="2"/>
-      <c r="DG3" s="2"/>
-      <c r="DH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI3" s="1">
-        <v>64.45</v>
-      </c>
-      <c r="DJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ3" s="2"/>
-      <c r="DR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS3" s="2"/>
-      <c r="DT3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU3" s="2"/>
-      <c r="DV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ3" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="EA3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="EB3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC3" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED3" s="2"/>
-      <c r="EE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="2"/>
-      <c r="EG3" s="2"/>
-      <c r="EH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK3" s="2"/>
-      <c r="EL3" s="3">
-        <v>44484.642565428243</v>
-      </c>
-      <c r="EM3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER3" s="1">
-        <v>0</v>
-      </c>
       <c r="ES3" s="1">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="ET3" s="1">
         <v>0</v>
@@ -2639,17 +2493,11 @@
       <c r="EU3" s="1">
         <v>0</v>
       </c>
-      <c r="EV3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW3" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX3" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV3" s="2"/>
+      <c r="EW3" s="2"/>
+      <c r="EX3" s="2"/>
       <c r="EY3" s="1">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="EZ3" s="1">
         <v>0</v>
@@ -2657,12 +2505,14 @@
       <c r="FA3" s="1">
         <v>0</v>
       </c>
-      <c r="FB3" s="2"/>
+      <c r="FB3" s="1">
+        <v>0</v>
+      </c>
       <c r="FC3" s="2"/>
-      <c r="FD3" s="2"/>
-      <c r="FE3" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD3" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE3" s="2"/>
       <c r="FF3" s="1">
         <v>0</v>
       </c>
@@ -2672,14 +2522,16 @@
       <c r="FH3" s="1">
         <v>0</v>
       </c>
-      <c r="FI3" s="2"/>
+      <c r="FI3" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ3" s="1">
         <v>0</v>
       </c>
-      <c r="FK3" s="2"/>
-      <c r="FL3" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK3" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL3" s="2"/>
       <c r="FM3" s="1">
         <v>0</v>
       </c>
@@ -2692,10 +2544,10 @@
       <c r="FP3" s="1">
         <v>0</v>
       </c>
-      <c r="FQ3" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR3" s="2"/>
+      <c r="FQ3" s="2"/>
+      <c r="FR3" s="1">
+        <v>0</v>
+      </c>
       <c r="FS3" s="1">
         <v>0</v>
       </c>
@@ -2705,82 +2557,66 @@
       <c r="FU3" s="1">
         <v>0</v>
       </c>
-      <c r="FV3" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV3" s="2"/>
       <c r="FW3" s="2"/>
-      <c r="FX3" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX3" s="2"/>
       <c r="FY3" s="1">
         <v>0</v>
       </c>
       <c r="FZ3" s="1">
         <v>0</v>
       </c>
-      <c r="GA3" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB3" s="2"/>
-      <c r="GC3" s="2"/>
-      <c r="GD3" s="2"/>
-      <c r="GE3" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF3" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30.66</v>
       </c>
       <c r="D4" s="1">
-        <v>30.66</v>
+        <v>64.45</v>
       </c>
       <c r="E4" s="1">
-        <v>64.45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="1">
         <v>7</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="1" t="s">
-        <v>191</v>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
         <v>42.76</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="1" t="s">
-        <v>192</v>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>58</v>
       </c>
       <c r="Q4" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
@@ -2800,14 +2636,14 @@
       <c r="X4" s="1">
         <v>0</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>213</v>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -2819,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <v>0</v>
@@ -2843,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN4" s="1">
         <v>0</v>
@@ -2852,19 +2688,19 @@
         <v>0</v>
       </c>
       <c r="AP4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ4" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1">
         <v>0</v>
       </c>
       <c r="AS4" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT4" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="1">
         <v>0</v>
@@ -2873,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="AW4" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="1">
         <v>0</v>
@@ -2881,8 +2717,8 @@
       <c r="AY4" s="1">
         <v>0</v>
       </c>
-      <c r="AZ4" s="1">
-        <v>0</v>
+      <c r="AZ4" s="3">
+        <v>44519</v>
       </c>
       <c r="BA4" s="1">
         <v>0</v>
@@ -2893,38 +2729,38 @@
       <c r="BC4" s="1">
         <v>0</v>
       </c>
-      <c r="BD4" s="3">
+      <c r="BD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>55.59</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="3">
         <v>44519</v>
       </c>
-      <c r="BE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>55.59</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>44519</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM4" s="3">
+      <c r="BH4" s="3">
         <v>44534.449525462966</v>
       </c>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>0</v>
+      </c>
       <c r="BP4" s="1">
         <v>0</v>
       </c>
@@ -2934,18 +2770,14 @@
       <c r="BR4" s="1">
         <v>0</v>
       </c>
-      <c r="BS4" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS4" s="2"/>
       <c r="BT4" s="1">
         <v>0</v>
       </c>
       <c r="BU4" s="1">
         <v>0</v>
       </c>
-      <c r="BV4" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV4" s="2"/>
       <c r="BW4" s="1">
         <v>0</v>
       </c>
@@ -2956,186 +2788,190 @@
       <c r="BZ4" s="1">
         <v>0</v>
       </c>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB4" s="2"/>
       <c r="CC4" s="2"/>
-      <c r="CD4" s="1">
-        <v>0</v>
+      <c r="CD4" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE4" s="1">
         <v>0</v>
       </c>
-      <c r="CF4" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG4" s="2"/>
-      <c r="CH4" s="2"/>
+      <c r="CF4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>0</v>
+      </c>
       <c r="CI4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK4" s="1">
+        <v>1</v>
+      </c>
+      <c r="CL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="2"/>
+      <c r="CR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="1">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="1" t="s">
+      <c r="CY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="1">
+        <v>64.45</v>
+      </c>
+      <c r="DD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="2"/>
+      <c r="DL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="CO4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ4" s="1">
+      <c r="DU4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DV4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="2"/>
+      <c r="DY4" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="2"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="3">
+        <v>44484.642565428243</v>
+      </c>
+      <c r="EG4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP4" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ4" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER4" s="1">
         <v>1</v>
       </c>
-      <c r="CR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="2"/>
-      <c r="CT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="2"/>
-      <c r="CX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB4" s="1">
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="DC4" s="2"/>
-      <c r="DD4" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="DE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="2"/>
-      <c r="DG4" s="2"/>
-      <c r="DH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="1">
-        <v>64.45</v>
-      </c>
-      <c r="DJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ4" s="2"/>
-      <c r="DR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS4" s="2"/>
-      <c r="DT4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU4" s="2"/>
-      <c r="DV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY4" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="EA4" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="EB4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC4" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED4" s="2"/>
-      <c r="EE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF4" s="2"/>
-      <c r="EG4" s="2"/>
-      <c r="EH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK4" s="2"/>
-      <c r="EL4" s="3">
-        <v>44484.642565428243</v>
-      </c>
-      <c r="EM4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN4" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER4" s="1">
-        <v>0</v>
-      </c>
       <c r="ES4" s="1">
-        <v>0</v>
+        <v>30.67</v>
       </c>
       <c r="ET4" s="1">
         <v>0</v>
@@ -3143,17 +2979,11 @@
       <c r="EU4" s="1">
         <v>0</v>
       </c>
-      <c r="EV4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW4" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX4" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2"/>
       <c r="EY4" s="1">
-        <v>30.67</v>
+        <v>0</v>
       </c>
       <c r="EZ4" s="1">
         <v>0</v>
@@ -3161,12 +2991,14 @@
       <c r="FA4" s="1">
         <v>0</v>
       </c>
-      <c r="FB4" s="2"/>
+      <c r="FB4" s="1">
+        <v>0</v>
+      </c>
       <c r="FC4" s="2"/>
-      <c r="FD4" s="2"/>
-      <c r="FE4" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE4" s="2"/>
       <c r="FF4" s="1">
         <v>0</v>
       </c>
@@ -3176,14 +3008,16 @@
       <c r="FH4" s="1">
         <v>0</v>
       </c>
-      <c r="FI4" s="2"/>
+      <c r="FI4" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ4" s="1">
         <v>0</v>
       </c>
-      <c r="FK4" s="2"/>
-      <c r="FL4" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK4" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL4" s="2"/>
       <c r="FM4" s="1">
         <v>0</v>
       </c>
@@ -3196,10 +3030,10 @@
       <c r="FP4" s="1">
         <v>0</v>
       </c>
-      <c r="FQ4" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR4" s="2"/>
+      <c r="FQ4" s="2"/>
+      <c r="FR4" s="1">
+        <v>0</v>
+      </c>
       <c r="FS4" s="1">
         <v>0</v>
       </c>
@@ -3209,82 +3043,66 @@
       <c r="FU4" s="1">
         <v>0</v>
       </c>
-      <c r="FV4" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV4" s="2"/>
       <c r="FW4" s="2"/>
-      <c r="FX4" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX4" s="2"/>
       <c r="FY4" s="1">
         <v>0</v>
       </c>
       <c r="FZ4" s="1">
         <v>0</v>
       </c>
-      <c r="GA4" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB4" s="2"/>
-      <c r="GC4" s="2"/>
-      <c r="GD4" s="2"/>
-      <c r="GE4" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF4" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
+      </c>
+      <c r="C5" s="1">
+        <v>17.39</v>
       </c>
       <c r="D5" s="1">
-        <v>17.39</v>
+        <v>38.89</v>
       </c>
       <c r="E5" s="1">
-        <v>38.89</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="1">
         <v>16</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="1" t="s">
-        <v>191</v>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
         <v>24.25</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="1" t="s">
-        <v>192</v>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6</v>
+      </c>
+      <c r="P5" s="1">
+        <v>35</v>
       </c>
       <c r="Q5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -3304,14 +3122,14 @@
       <c r="X5" s="1">
         <v>0</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>219</v>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -3323,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
         <v>0</v>
@@ -3347,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN5" s="1">
         <v>0</v>
@@ -3356,19 +3174,19 @@
         <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ5" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="1">
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT5" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="1">
         <v>0</v>
@@ -3377,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AW5" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="1">
         <v>0</v>
@@ -3385,8 +3203,8 @@
       <c r="AY5" s="1">
         <v>0</v>
       </c>
-      <c r="AZ5" s="1">
-        <v>0</v>
+      <c r="AZ5" s="3">
+        <v>44484</v>
       </c>
       <c r="BA5" s="1">
         <v>0</v>
@@ -3397,38 +3215,38 @@
       <c r="BC5" s="1">
         <v>0</v>
       </c>
-      <c r="BD5" s="3">
-        <v>44484</v>
+      <c r="BD5" s="1">
+        <v>0</v>
       </c>
       <c r="BE5" s="1">
-        <v>0</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="1">
-        <v>33.950000000000003</v>
-      </c>
-      <c r="BJ5" s="1">
         <v>1</v>
       </c>
-      <c r="BK5" s="3">
+      <c r="BG5" s="3">
         <v>44494</v>
       </c>
-      <c r="BL5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM5" s="3">
+      <c r="BH5" s="3">
         <v>44538.582233796296</v>
       </c>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>0</v>
+      </c>
       <c r="BP5" s="1">
         <v>0</v>
       </c>
@@ -3438,18 +3256,14 @@
       <c r="BR5" s="1">
         <v>0</v>
       </c>
-      <c r="BS5" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS5" s="2"/>
       <c r="BT5" s="1">
         <v>0</v>
       </c>
       <c r="BU5" s="1">
         <v>0</v>
       </c>
-      <c r="BV5" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV5" s="2"/>
       <c r="BW5" s="1">
         <v>0</v>
       </c>
@@ -3460,186 +3274,190 @@
       <c r="BZ5" s="1">
         <v>0</v>
       </c>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB5" s="2"/>
       <c r="CC5" s="2"/>
-      <c r="CD5" s="1">
-        <v>0</v>
+      <c r="CD5" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE5" s="1">
         <v>0</v>
       </c>
-      <c r="CF5" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG5" s="2"/>
-      <c r="CH5" s="2"/>
+      <c r="CF5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>0</v>
+      </c>
       <c r="CI5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK5" s="1">
+        <v>1</v>
       </c>
       <c r="CL5" s="1">
         <v>0</v>
       </c>
-      <c r="CM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="CO5" s="1" t="s">
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="2"/>
+      <c r="CR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="1">
+        <v>36</v>
+      </c>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CP5" s="1" t="s">
+      <c r="CY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="1">
+        <v>38.89</v>
+      </c>
+      <c r="DD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="2"/>
+      <c r="DL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2"/>
+      <c r="DN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2"/>
+      <c r="DP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT5" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CQ5" s="1">
+      <c r="DU5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="DV5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX5" s="2"/>
+      <c r="DY5" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="2"/>
+      <c r="EA5" s="2"/>
+      <c r="EB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE5" s="2"/>
+      <c r="EF5" s="3">
+        <v>44484.642565428243</v>
+      </c>
+      <c r="EG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP5" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER5" s="1">
         <v>1</v>
       </c>
-      <c r="CR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="2"/>
-      <c r="CT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="2"/>
-      <c r="CX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="1">
-        <v>36</v>
-      </c>
-      <c r="DC5" s="2"/>
-      <c r="DD5" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="DE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="2"/>
-      <c r="DG5" s="2"/>
-      <c r="DH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="1">
-        <v>38.89</v>
-      </c>
-      <c r="DJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2"/>
-      <c r="DR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2"/>
-      <c r="DT5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU5" s="2"/>
-      <c r="DV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY5" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ5" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="EA5" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="EB5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC5" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED5" s="2"/>
-      <c r="EE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF5" s="2"/>
-      <c r="EG5" s="2"/>
-      <c r="EH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK5" s="2"/>
-      <c r="EL5" s="3">
-        <v>44484.642565428243</v>
-      </c>
-      <c r="EM5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN5" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER5" s="1">
-        <v>0</v>
-      </c>
       <c r="ES5" s="1">
-        <v>0</v>
+        <v>17.380116959999999</v>
       </c>
       <c r="ET5" s="1">
         <v>0</v>
@@ -3647,17 +3465,11 @@
       <c r="EU5" s="1">
         <v>0</v>
       </c>
-      <c r="EV5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW5" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX5" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV5" s="2"/>
+      <c r="EW5" s="2"/>
+      <c r="EX5" s="2"/>
       <c r="EY5" s="1">
-        <v>17.380116959999999</v>
+        <v>0</v>
       </c>
       <c r="EZ5" s="1">
         <v>0</v>
@@ -3665,12 +3477,14 @@
       <c r="FA5" s="1">
         <v>0</v>
       </c>
-      <c r="FB5" s="2"/>
+      <c r="FB5" s="1">
+        <v>0</v>
+      </c>
       <c r="FC5" s="2"/>
-      <c r="FD5" s="2"/>
-      <c r="FE5" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE5" s="2"/>
       <c r="FF5" s="1">
         <v>0</v>
       </c>
@@ -3680,14 +3494,16 @@
       <c r="FH5" s="1">
         <v>0</v>
       </c>
-      <c r="FI5" s="2"/>
+      <c r="FI5" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ5" s="1">
         <v>0</v>
       </c>
-      <c r="FK5" s="2"/>
-      <c r="FL5" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL5" s="2"/>
       <c r="FM5" s="1">
         <v>0</v>
       </c>
@@ -3700,10 +3516,10 @@
       <c r="FP5" s="1">
         <v>0</v>
       </c>
-      <c r="FQ5" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR5" s="2"/>
+      <c r="FQ5" s="2"/>
+      <c r="FR5" s="1">
+        <v>0</v>
+      </c>
       <c r="FS5" s="1">
         <v>0</v>
       </c>
@@ -3713,82 +3529,66 @@
       <c r="FU5" s="1">
         <v>0</v>
       </c>
-      <c r="FV5" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV5" s="2"/>
       <c r="FW5" s="2"/>
-      <c r="FX5" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX5" s="2"/>
       <c r="FY5" s="1">
         <v>0</v>
       </c>
       <c r="FZ5" s="1">
         <v>0</v>
       </c>
-      <c r="GA5" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB5" s="2"/>
-      <c r="GC5" s="2"/>
-      <c r="GD5" s="2"/>
-      <c r="GE5" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF5" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.9540000000000006</v>
       </c>
       <c r="D6" s="1">
-        <v>6.9540000000000006</v>
+        <v>16.7</v>
       </c>
       <c r="E6" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="1">
         <v>199</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="1" t="s">
-        <v>191</v>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="1" t="s">
-        <v>192</v>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1">
+        <v>15</v>
       </c>
       <c r="Q6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R6" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S6" s="1">
         <v>0</v>
@@ -3808,14 +3608,14 @@
       <c r="X6" s="1">
         <v>0</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>225</v>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="1">
         <v>0</v>
@@ -3827,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
         <v>0</v>
@@ -3851,7 +3651,7 @@
         <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN6" s="1">
         <v>0</v>
@@ -3860,19 +3660,19 @@
         <v>0</v>
       </c>
       <c r="AP6" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ6" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="1">
         <v>0</v>
       </c>
       <c r="AS6" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT6" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="1">
         <v>0</v>
@@ -3881,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="AW6" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="1">
         <v>0</v>
@@ -3889,8 +3689,8 @@
       <c r="AY6" s="1">
         <v>0</v>
       </c>
-      <c r="AZ6" s="1">
-        <v>0</v>
+      <c r="AZ6" s="3">
+        <v>44519</v>
       </c>
       <c r="BA6" s="1">
         <v>0</v>
@@ -3901,38 +3701,38 @@
       <c r="BC6" s="1">
         <v>0</v>
       </c>
-      <c r="BD6" s="3">
-        <v>44519</v>
+      <c r="BD6" s="1">
+        <v>0</v>
       </c>
       <c r="BE6" s="1">
-        <v>0</v>
+        <v>13.58</v>
       </c>
       <c r="BF6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="1">
-        <v>13.58</v>
-      </c>
-      <c r="BJ6" s="1">
         <v>1</v>
       </c>
-      <c r="BK6" s="3">
+      <c r="BG6" s="3">
         <v>44494</v>
       </c>
-      <c r="BL6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM6" s="3">
+      <c r="BH6" s="3">
         <v>44559.603275462963</v>
       </c>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>0</v>
+      </c>
       <c r="BP6" s="1">
         <v>0</v>
       </c>
@@ -3942,18 +3742,14 @@
       <c r="BR6" s="1">
         <v>0</v>
       </c>
-      <c r="BS6" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS6" s="2"/>
       <c r="BT6" s="1">
         <v>0</v>
       </c>
       <c r="BU6" s="1">
         <v>0</v>
       </c>
-      <c r="BV6" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV6" s="2"/>
       <c r="BW6" s="1">
         <v>0</v>
       </c>
@@ -3964,186 +3760,190 @@
       <c r="BZ6" s="1">
         <v>0</v>
       </c>
-      <c r="CA6" s="2"/>
-      <c r="CB6" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB6" s="2"/>
       <c r="CC6" s="2"/>
-      <c r="CD6" s="1">
-        <v>0</v>
+      <c r="CD6" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE6" s="1">
         <v>0</v>
       </c>
-      <c r="CF6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG6" s="2"/>
-      <c r="CH6" s="2"/>
+      <c r="CF6" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>0</v>
+      </c>
       <c r="CI6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK6" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="CJ6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK6" s="1">
+        <v>1</v>
       </c>
       <c r="CL6" s="1">
         <v>0</v>
       </c>
-      <c r="CM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CO6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ6" s="1">
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ6" s="2"/>
+      <c r="CR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV6" s="1">
+        <v>2.6315789473684208</v>
+      </c>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="CY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+      <c r="DB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC6" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="DD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK6" s="2"/>
+      <c r="DL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM6" s="2"/>
+      <c r="DN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO6" s="2"/>
+      <c r="DP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DU6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="DV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX6" s="2"/>
+      <c r="DY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ6" s="2"/>
+      <c r="EA6" s="2"/>
+      <c r="EB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE6" s="2"/>
+      <c r="EF6" s="3">
+        <v>44484.642565428243</v>
+      </c>
+      <c r="EG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH6" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER6" s="1">
         <v>1</v>
       </c>
-      <c r="CR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS6" s="2"/>
-      <c r="CT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW6" s="2"/>
-      <c r="CX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY6" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB6" s="1">
-        <v>2.6315789473684208</v>
-      </c>
-      <c r="DC6" s="2"/>
-      <c r="DD6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="DE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF6" s="2"/>
-      <c r="DG6" s="2"/>
-      <c r="DH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI6" s="1">
-        <v>16.7</v>
-      </c>
-      <c r="DJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ6" s="2"/>
-      <c r="DR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS6" s="2"/>
-      <c r="DT6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU6" s="2"/>
-      <c r="DV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY6" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ6" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="EA6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="EB6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC6" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED6" s="2"/>
-      <c r="EE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF6" s="2"/>
-      <c r="EG6" s="2"/>
-      <c r="EH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK6" s="2"/>
-      <c r="EL6" s="3">
-        <v>44484.642565428243</v>
-      </c>
-      <c r="EM6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER6" s="1">
-        <v>0</v>
-      </c>
       <c r="ES6" s="1">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="ET6" s="1">
         <v>0</v>
@@ -4151,17 +3951,11 @@
       <c r="EU6" s="1">
         <v>0</v>
       </c>
-      <c r="EV6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW6" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX6" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV6" s="2"/>
+      <c r="EW6" s="2"/>
+      <c r="EX6" s="2"/>
       <c r="EY6" s="1">
-        <v>6.95</v>
+        <v>0</v>
       </c>
       <c r="EZ6" s="1">
         <v>0</v>
@@ -4169,12 +3963,14 @@
       <c r="FA6" s="1">
         <v>0</v>
       </c>
-      <c r="FB6" s="2"/>
+      <c r="FB6" s="1">
+        <v>0</v>
+      </c>
       <c r="FC6" s="2"/>
-      <c r="FD6" s="2"/>
-      <c r="FE6" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE6" s="2"/>
       <c r="FF6" s="1">
         <v>0</v>
       </c>
@@ -4184,14 +3980,16 @@
       <c r="FH6" s="1">
         <v>0</v>
       </c>
-      <c r="FI6" s="2"/>
+      <c r="FI6" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ6" s="1">
         <v>0</v>
       </c>
-      <c r="FK6" s="2"/>
-      <c r="FL6" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL6" s="2"/>
       <c r="FM6" s="1">
         <v>0</v>
       </c>
@@ -4204,10 +4002,10 @@
       <c r="FP6" s="1">
         <v>0</v>
       </c>
-      <c r="FQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR6" s="2"/>
+      <c r="FQ6" s="2"/>
+      <c r="FR6" s="1">
+        <v>0</v>
+      </c>
       <c r="FS6" s="1">
         <v>0</v>
       </c>
@@ -4217,82 +4015,66 @@
       <c r="FU6" s="1">
         <v>0</v>
       </c>
-      <c r="FV6" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV6" s="2"/>
       <c r="FW6" s="2"/>
-      <c r="FX6" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX6" s="2"/>
       <c r="FY6" s="1">
         <v>0</v>
       </c>
       <c r="FZ6" s="1">
         <v>0</v>
       </c>
-      <c r="GA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB6" s="2"/>
-      <c r="GC6" s="2"/>
-      <c r="GD6" s="2"/>
-      <c r="GE6" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF6" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23.79</v>
       </c>
       <c r="D7" s="1">
-        <v>23.79</v>
+        <v>52.25</v>
       </c>
       <c r="E7" s="1">
-        <v>52.25</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="1">
         <v>43</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="1" t="s">
-        <v>191</v>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
       </c>
       <c r="J7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1">
         <v>33.18</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="1" t="s">
-        <v>192</v>
+      <c r="M7" s="2"/>
+      <c r="N7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>47</v>
       </c>
       <c r="Q7" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R7" s="1">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="S7" s="1">
         <v>0</v>
@@ -4312,14 +4094,14 @@
       <c r="X7" s="1">
         <v>0</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>231</v>
+      <c r="Y7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB7" s="1">
         <v>0</v>
@@ -4331,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
         <v>0</v>
@@ -4355,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="AM7" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN7" s="1">
         <v>0</v>
@@ -4364,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="AP7" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ7" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="1">
         <v>0</v>
       </c>
       <c r="AS7" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT7" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="1">
         <v>0</v>
@@ -4385,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="AW7" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="1">
         <v>0</v>
@@ -4393,8 +4175,8 @@
       <c r="AY7" s="1">
         <v>0</v>
       </c>
-      <c r="AZ7" s="1">
-        <v>0</v>
+      <c r="AZ7" s="3">
+        <v>44519</v>
       </c>
       <c r="BA7" s="1">
         <v>0</v>
@@ -4405,38 +4187,38 @@
       <c r="BC7" s="1">
         <v>0</v>
       </c>
-      <c r="BD7" s="3">
-        <v>44519</v>
+      <c r="BD7" s="1">
+        <v>0</v>
       </c>
       <c r="BE7" s="1">
-        <v>0</v>
+        <v>46.45</v>
       </c>
       <c r="BF7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1">
-        <v>46.45</v>
-      </c>
-      <c r="BJ7" s="1">
         <v>1</v>
       </c>
-      <c r="BK7" s="3">
+      <c r="BG7" s="3">
         <v>44494</v>
       </c>
-      <c r="BL7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM7" s="3">
+      <c r="BH7" s="3">
         <v>44550.614085648151</v>
       </c>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>0</v>
+      </c>
       <c r="BP7" s="1">
         <v>0</v>
       </c>
@@ -4446,18 +4228,14 @@
       <c r="BR7" s="1">
         <v>0</v>
       </c>
-      <c r="BS7" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS7" s="2"/>
       <c r="BT7" s="1">
         <v>0</v>
       </c>
       <c r="BU7" s="1">
         <v>0</v>
       </c>
-      <c r="BV7" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV7" s="2"/>
       <c r="BW7" s="1">
         <v>0</v>
       </c>
@@ -4468,186 +4246,190 @@
       <c r="BZ7" s="1">
         <v>0</v>
       </c>
-      <c r="CA7" s="2"/>
-      <c r="CB7" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB7" s="2"/>
       <c r="CC7" s="2"/>
-      <c r="CD7" s="1">
-        <v>0</v>
+      <c r="CD7" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE7" s="1">
         <v>0</v>
       </c>
-      <c r="CF7" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG7" s="2"/>
-      <c r="CH7" s="2"/>
+      <c r="CF7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>0</v>
+      </c>
       <c r="CI7" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK7" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="CJ7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK7" s="1">
+        <v>1</v>
       </c>
       <c r="CL7" s="1">
         <v>0</v>
       </c>
-      <c r="CM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN7" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="CO7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ7" s="1">
+      <c r="CM7" s="2"/>
+      <c r="CN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ7" s="2"/>
+      <c r="CR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV7" s="1">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="CY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC7" s="1">
+        <v>52.25</v>
+      </c>
+      <c r="DD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK7" s="2"/>
+      <c r="DL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM7" s="2"/>
+      <c r="DN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO7" s="2"/>
+      <c r="DP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="DU7" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="DV7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="2"/>
+      <c r="DY7" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="2"/>
+      <c r="EA7" s="2"/>
+      <c r="EB7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="2"/>
+      <c r="EF7" s="3">
+        <v>44484.642565428243</v>
+      </c>
+      <c r="EG7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="1">
         <v>1</v>
       </c>
-      <c r="CR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS7" s="2"/>
-      <c r="CT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW7" s="2"/>
-      <c r="CX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY7" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB7" s="1">
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="DC7" s="2"/>
-      <c r="DD7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="DE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF7" s="2"/>
-      <c r="DG7" s="2"/>
-      <c r="DH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI7" s="1">
-        <v>52.25</v>
-      </c>
-      <c r="DJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ7" s="2"/>
-      <c r="DR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS7" s="2"/>
-      <c r="DT7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU7" s="2"/>
-      <c r="DV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="EA7" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="EB7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC7" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="2"/>
-      <c r="EE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF7" s="2"/>
-      <c r="EG7" s="2"/>
-      <c r="EH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK7" s="2"/>
-      <c r="EL7" s="3">
-        <v>44484.642565428243</v>
-      </c>
-      <c r="EM7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER7" s="1">
-        <v>0</v>
-      </c>
       <c r="ES7" s="1">
-        <v>0</v>
+        <v>23.79</v>
       </c>
       <c r="ET7" s="1">
         <v>0</v>
@@ -4655,17 +4437,11 @@
       <c r="EU7" s="1">
         <v>0</v>
       </c>
-      <c r="EV7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW7" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX7" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV7" s="2"/>
+      <c r="EW7" s="2"/>
+      <c r="EX7" s="2"/>
       <c r="EY7" s="1">
-        <v>23.79</v>
+        <v>0</v>
       </c>
       <c r="EZ7" s="1">
         <v>0</v>
@@ -4673,12 +4449,14 @@
       <c r="FA7" s="1">
         <v>0</v>
       </c>
-      <c r="FB7" s="2"/>
+      <c r="FB7" s="1">
+        <v>0</v>
+      </c>
       <c r="FC7" s="2"/>
-      <c r="FD7" s="2"/>
-      <c r="FE7" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="2"/>
       <c r="FF7" s="1">
         <v>0</v>
       </c>
@@ -4688,14 +4466,16 @@
       <c r="FH7" s="1">
         <v>0</v>
       </c>
-      <c r="FI7" s="2"/>
+      <c r="FI7" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ7" s="1">
         <v>0</v>
       </c>
-      <c r="FK7" s="2"/>
-      <c r="FL7" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK7" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL7" s="2"/>
       <c r="FM7" s="1">
         <v>0</v>
       </c>
@@ -4708,10 +4488,10 @@
       <c r="FP7" s="1">
         <v>0</v>
       </c>
-      <c r="FQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR7" s="2"/>
+      <c r="FQ7" s="2"/>
+      <c r="FR7" s="1">
+        <v>0</v>
+      </c>
       <c r="FS7" s="1">
         <v>0</v>
       </c>
@@ -4721,82 +4501,66 @@
       <c r="FU7" s="1">
         <v>0</v>
       </c>
-      <c r="FV7" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV7" s="2"/>
       <c r="FW7" s="2"/>
-      <c r="FX7" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX7" s="2"/>
       <c r="FY7" s="1">
         <v>0</v>
       </c>
       <c r="FZ7" s="1">
         <v>0</v>
       </c>
-      <c r="GA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB7" s="2"/>
-      <c r="GC7" s="2"/>
-      <c r="GD7" s="2"/>
-      <c r="GE7" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF7" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31.45</v>
       </c>
       <c r="D8" s="1">
-        <v>31.45</v>
+        <v>68.89</v>
       </c>
       <c r="E8" s="1">
-        <v>68.89</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="1">
         <v>9</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="1" t="s">
-        <v>191</v>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
       </c>
       <c r="J8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
         <v>43.86</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="1" t="s">
-        <v>192</v>
+      <c r="M8" s="2"/>
+      <c r="N8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>62</v>
       </c>
       <c r="Q8" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1">
         <v>0</v>
@@ -4816,14 +4580,14 @@
       <c r="X8" s="1">
         <v>0</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>237</v>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB8" s="1">
         <v>0</v>
@@ -4835,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
         <v>0</v>
@@ -4859,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="AM8" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN8" s="1">
         <v>0</v>
@@ -4868,19 +4632,19 @@
         <v>0</v>
       </c>
       <c r="AP8" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ8" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="1">
         <v>0</v>
       </c>
       <c r="AS8" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AT8" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU8" s="1">
         <v>0</v>
@@ -4889,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AX8" s="1">
         <v>0</v>
@@ -4897,8 +4661,8 @@
       <c r="AY8" s="1">
         <v>0</v>
       </c>
-      <c r="AZ8" s="1">
-        <v>0</v>
+      <c r="AZ8" s="3">
+        <v>44484</v>
       </c>
       <c r="BA8" s="1">
         <v>0</v>
@@ -4909,38 +4673,38 @@
       <c r="BC8" s="1">
         <v>0</v>
       </c>
-      <c r="BD8" s="3">
-        <v>44484</v>
+      <c r="BD8" s="1">
+        <v>0</v>
       </c>
       <c r="BE8" s="1">
-        <v>0</v>
+        <v>61.4</v>
       </c>
       <c r="BF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>61.4</v>
-      </c>
-      <c r="BJ8" s="1">
         <v>1</v>
       </c>
-      <c r="BK8" s="3">
+      <c r="BG8" s="3">
         <v>44494</v>
       </c>
-      <c r="BL8" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM8" s="3">
+      <c r="BH8" s="3">
         <v>44527.373287037037</v>
       </c>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>0</v>
+      </c>
       <c r="BP8" s="1">
         <v>0</v>
       </c>
@@ -4950,18 +4714,14 @@
       <c r="BR8" s="1">
         <v>0</v>
       </c>
-      <c r="BS8" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS8" s="2"/>
       <c r="BT8" s="1">
         <v>0</v>
       </c>
       <c r="BU8" s="1">
         <v>0</v>
       </c>
-      <c r="BV8" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV8" s="2"/>
       <c r="BW8" s="1">
         <v>0</v>
       </c>
@@ -4972,186 +4732,190 @@
       <c r="BZ8" s="1">
         <v>0</v>
       </c>
-      <c r="CA8" s="2"/>
-      <c r="CB8" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB8" s="2"/>
       <c r="CC8" s="2"/>
-      <c r="CD8" s="1">
-        <v>0</v>
+      <c r="CD8" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE8" s="1">
         <v>0</v>
       </c>
-      <c r="CF8" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG8" s="2"/>
-      <c r="CH8" s="2"/>
+      <c r="CF8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>0</v>
+      </c>
       <c r="CI8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>1</v>
       </c>
       <c r="CL8" s="1">
         <v>0</v>
       </c>
-      <c r="CM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="CO8" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP8" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ8" s="1">
+      <c r="CM8" s="2"/>
+      <c r="CN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ8" s="2"/>
+      <c r="CR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV8" s="1">
+        <v>10</v>
+      </c>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC8" s="1">
+        <v>68.89</v>
+      </c>
+      <c r="DD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK8" s="2"/>
+      <c r="DL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="2"/>
+      <c r="DN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="2"/>
+      <c r="DP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="DU8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="DV8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX8" s="2"/>
+      <c r="DY8" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ8" s="2"/>
+      <c r="EA8" s="2"/>
+      <c r="EB8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC8" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE8" s="2"/>
+      <c r="EF8" s="3">
+        <v>44484.64256547454</v>
+      </c>
+      <c r="EG8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="1">
         <v>1</v>
       </c>
-      <c r="CR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS8" s="2"/>
-      <c r="CT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW8" s="2"/>
-      <c r="CX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY8" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB8" s="1">
-        <v>10</v>
-      </c>
-      <c r="DC8" s="2"/>
-      <c r="DD8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="DE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF8" s="2"/>
-      <c r="DG8" s="2"/>
-      <c r="DH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI8" s="1">
-        <v>68.89</v>
-      </c>
-      <c r="DJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ8" s="2"/>
-      <c r="DR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS8" s="2"/>
-      <c r="DT8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU8" s="2"/>
-      <c r="DV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY8" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="EA8" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="EB8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC8" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED8" s="2"/>
-      <c r="EE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF8" s="2"/>
-      <c r="EG8" s="2"/>
-      <c r="EH8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK8" s="2"/>
-      <c r="EL8" s="3">
-        <v>44484.64256547454</v>
-      </c>
-      <c r="EM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN8" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER8" s="1">
-        <v>0</v>
-      </c>
       <c r="ES8" s="1">
-        <v>0</v>
+        <v>44.92</v>
       </c>
       <c r="ET8" s="1">
         <v>0</v>
@@ -5159,17 +4923,11 @@
       <c r="EU8" s="1">
         <v>0</v>
       </c>
-      <c r="EV8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW8" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX8" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV8" s="2"/>
+      <c r="EW8" s="2"/>
+      <c r="EX8" s="2"/>
       <c r="EY8" s="1">
-        <v>44.92</v>
+        <v>0</v>
       </c>
       <c r="EZ8" s="1">
         <v>0</v>
@@ -5177,12 +4935,14 @@
       <c r="FA8" s="1">
         <v>0</v>
       </c>
-      <c r="FB8" s="2"/>
+      <c r="FB8" s="1">
+        <v>0</v>
+      </c>
       <c r="FC8" s="2"/>
-      <c r="FD8" s="2"/>
-      <c r="FE8" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="2"/>
       <c r="FF8" s="1">
         <v>0</v>
       </c>
@@ -5192,14 +4952,16 @@
       <c r="FH8" s="1">
         <v>0</v>
       </c>
-      <c r="FI8" s="2"/>
+      <c r="FI8" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ8" s="1">
         <v>0</v>
       </c>
-      <c r="FK8" s="2"/>
-      <c r="FL8" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK8" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL8" s="2"/>
       <c r="FM8" s="1">
         <v>0</v>
       </c>
@@ -5212,10 +4974,10 @@
       <c r="FP8" s="1">
         <v>0</v>
       </c>
-      <c r="FQ8" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR8" s="2"/>
+      <c r="FQ8" s="2"/>
+      <c r="FR8" s="1">
+        <v>0</v>
+      </c>
       <c r="FS8" s="1">
         <v>0</v>
       </c>
@@ -5225,82 +4987,66 @@
       <c r="FU8" s="1">
         <v>0</v>
       </c>
-      <c r="FV8" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV8" s="2"/>
       <c r="FW8" s="2"/>
-      <c r="FX8" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX8" s="2"/>
       <c r="FY8" s="1">
         <v>0</v>
       </c>
       <c r="FZ8" s="1">
         <v>0</v>
       </c>
-      <c r="GA8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB8" s="2"/>
-      <c r="GC8" s="2"/>
-      <c r="GD8" s="2"/>
-      <c r="GE8" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF8" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>189</v>
+        <v>211</v>
+      </c>
+      <c r="C9" s="1">
+        <v>58.39</v>
       </c>
       <c r="D9" s="1">
-        <v>58.39</v>
+        <v>116.67</v>
       </c>
       <c r="E9" s="1">
-        <v>116.67</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="1">
         <v>4</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="1" t="s">
-        <v>191</v>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
       </c>
       <c r="J9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
         <v>81.44</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="1" t="s">
-        <v>192</v>
+      <c r="M9" s="2"/>
+      <c r="N9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="1">
+        <v>6</v>
+      </c>
+      <c r="P9" s="1">
+        <v>105</v>
       </c>
       <c r="Q9" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1">
         <v>0</v>
@@ -5320,14 +5066,14 @@
       <c r="X9" s="1">
         <v>0</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>243</v>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="1">
         <v>0</v>
@@ -5339,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
         <v>0</v>
@@ -5363,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN9" s="1">
         <v>0</v>
@@ -5372,19 +5118,19 @@
         <v>0</v>
       </c>
       <c r="AP9" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ9" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="1">
         <v>0</v>
       </c>
       <c r="AS9" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT9" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="1">
         <v>0</v>
@@ -5393,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="AW9" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="1">
         <v>0</v>
@@ -5401,8 +5147,8 @@
       <c r="AY9" s="1">
         <v>0</v>
       </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
+      <c r="AZ9" s="3">
+        <v>44484</v>
       </c>
       <c r="BA9" s="1">
         <v>0</v>
@@ -5413,38 +5159,38 @@
       <c r="BC9" s="1">
         <v>0</v>
       </c>
-      <c r="BD9" s="3">
-        <v>44484</v>
+      <c r="BD9" s="1">
+        <v>0</v>
       </c>
       <c r="BE9" s="1">
-        <v>0</v>
+        <v>105.87</v>
       </c>
       <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>105.87</v>
-      </c>
-      <c r="BJ9" s="1">
         <v>1</v>
       </c>
-      <c r="BK9" s="3">
+      <c r="BG9" s="3">
         <v>44519</v>
       </c>
-      <c r="BL9" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM9" s="3">
+      <c r="BH9" s="3">
         <v>44519.476863425924</v>
       </c>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>0</v>
+      </c>
       <c r="BP9" s="1">
         <v>0</v>
       </c>
@@ -5454,18 +5200,14 @@
       <c r="BR9" s="1">
         <v>0</v>
       </c>
-      <c r="BS9" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS9" s="2"/>
       <c r="BT9" s="1">
         <v>0</v>
       </c>
       <c r="BU9" s="1">
         <v>0</v>
       </c>
-      <c r="BV9" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV9" s="2"/>
       <c r="BW9" s="1">
         <v>0</v>
       </c>
@@ -5476,186 +5218,190 @@
       <c r="BZ9" s="1">
         <v>0</v>
       </c>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB9" s="2"/>
       <c r="CC9" s="2"/>
-      <c r="CD9" s="1">
-        <v>0</v>
+      <c r="CD9" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE9" s="1">
         <v>0</v>
       </c>
-      <c r="CF9" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
+      <c r="CF9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>0</v>
+      </c>
       <c r="CI9" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>1</v>
       </c>
       <c r="CL9" s="1">
         <v>0</v>
       </c>
-      <c r="CM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN9" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="CO9" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ9" s="1">
+      <c r="CM9" s="2"/>
+      <c r="CN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="2"/>
+      <c r="CR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="CY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC9" s="1">
+        <v>116.67</v>
+      </c>
+      <c r="DD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK9" s="2"/>
+      <c r="DL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="2"/>
+      <c r="DN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="2"/>
+      <c r="DP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="DV9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX9" s="2"/>
+      <c r="DY9" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ9" s="2"/>
+      <c r="EA9" s="2"/>
+      <c r="EB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE9" s="2"/>
+      <c r="EF9" s="3">
+        <v>44484.64256547454</v>
+      </c>
+      <c r="EG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH9" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER9" s="1">
         <v>1</v>
       </c>
-      <c r="CR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS9" s="2"/>
-      <c r="CT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY9" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB9" s="1">
-        <v>4</v>
-      </c>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="DE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF9" s="2"/>
-      <c r="DG9" s="2"/>
-      <c r="DH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI9" s="1">
-        <v>116.67</v>
-      </c>
-      <c r="DJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ9" s="2"/>
-      <c r="DR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS9" s="2"/>
-      <c r="DT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU9" s="2"/>
-      <c r="DV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY9" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ9" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="EA9" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="EB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED9" s="2"/>
-      <c r="EE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF9" s="2"/>
-      <c r="EG9" s="2"/>
-      <c r="EH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK9" s="2"/>
-      <c r="EL9" s="3">
-        <v>44484.64256547454</v>
-      </c>
-      <c r="EM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER9" s="1">
-        <v>0</v>
-      </c>
       <c r="ES9" s="1">
-        <v>0</v>
+        <v>31.45</v>
       </c>
       <c r="ET9" s="1">
         <v>0</v>
@@ -5663,17 +5409,11 @@
       <c r="EU9" s="1">
         <v>0</v>
       </c>
-      <c r="EV9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW9" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX9" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV9" s="2"/>
+      <c r="EW9" s="2"/>
+      <c r="EX9" s="2"/>
       <c r="EY9" s="1">
-        <v>31.45</v>
+        <v>0</v>
       </c>
       <c r="EZ9" s="1">
         <v>0</v>
@@ -5681,12 +5421,14 @@
       <c r="FA9" s="1">
         <v>0</v>
       </c>
-      <c r="FB9" s="2"/>
+      <c r="FB9" s="1">
+        <v>0</v>
+      </c>
       <c r="FC9" s="2"/>
-      <c r="FD9" s="2"/>
-      <c r="FE9" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE9" s="2"/>
       <c r="FF9" s="1">
         <v>0</v>
       </c>
@@ -5696,14 +5438,16 @@
       <c r="FH9" s="1">
         <v>0</v>
       </c>
-      <c r="FI9" s="2"/>
+      <c r="FI9" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ9" s="1">
         <v>0</v>
       </c>
-      <c r="FK9" s="2"/>
-      <c r="FL9" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL9" s="2"/>
       <c r="FM9" s="1">
         <v>0</v>
       </c>
@@ -5716,10 +5460,10 @@
       <c r="FP9" s="1">
         <v>0</v>
       </c>
-      <c r="FQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR9" s="2"/>
+      <c r="FQ9" s="2"/>
+      <c r="FR9" s="1">
+        <v>0</v>
+      </c>
       <c r="FS9" s="1">
         <v>0</v>
       </c>
@@ -5729,82 +5473,66 @@
       <c r="FU9" s="1">
         <v>0</v>
       </c>
-      <c r="FV9" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV9" s="2"/>
       <c r="FW9" s="2"/>
-      <c r="FX9" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX9" s="2"/>
       <c r="FY9" s="1">
         <v>0</v>
       </c>
       <c r="FZ9" s="1">
         <v>0</v>
       </c>
-      <c r="GA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB9" s="2"/>
-      <c r="GC9" s="2"/>
-      <c r="GD9" s="2"/>
-      <c r="GE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF9" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:188" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:182" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>214</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30.67</v>
       </c>
       <c r="D10" s="1">
-        <v>30.67</v>
+        <v>64.45</v>
       </c>
       <c r="E10" s="1">
-        <v>64.45</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="G10" s="1">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="1" t="s">
-        <v>191</v>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
       </c>
       <c r="J10" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1">
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
         <v>42.77</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="1" t="s">
-        <v>192</v>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="1">
+        <v>6</v>
+      </c>
+      <c r="P10" s="1">
+        <v>58</v>
       </c>
       <c r="Q10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R10" s="1">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="S10" s="1">
         <v>0</v>
@@ -5824,14 +5552,14 @@
       <c r="X10" s="1">
         <v>0</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>249</v>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
       </c>
       <c r="AA10" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="1">
         <v>0</v>
@@ -5843,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="1">
         <v>0</v>
@@ -5867,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="AM10" s="1">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AN10" s="1">
         <v>0</v>
@@ -5876,19 +5604,19 @@
         <v>0</v>
       </c>
       <c r="AP10" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ10" s="1">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="1">
         <v>0</v>
       </c>
       <c r="AS10" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT10" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU10" s="1">
         <v>0</v>
@@ -5897,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="AW10" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AX10" s="1">
         <v>0</v>
@@ -5905,8 +5633,8 @@
       <c r="AY10" s="1">
         <v>0</v>
       </c>
-      <c r="AZ10" s="1">
-        <v>0</v>
+      <c r="AZ10" s="3">
+        <v>44484</v>
       </c>
       <c r="BA10" s="1">
         <v>0</v>
@@ -5917,38 +5645,38 @@
       <c r="BC10" s="1">
         <v>0</v>
       </c>
-      <c r="BD10" s="3">
-        <v>44484</v>
+      <c r="BD10" s="1">
+        <v>0</v>
       </c>
       <c r="BE10" s="1">
-        <v>0</v>
+        <v>55.6</v>
       </c>
       <c r="BF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="1">
-        <v>55.6</v>
-      </c>
-      <c r="BJ10" s="1">
         <v>1</v>
       </c>
-      <c r="BK10" s="3">
+      <c r="BG10" s="3">
         <v>44519</v>
       </c>
-      <c r="BL10" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="BM10" s="3">
+      <c r="BH10" s="3">
         <v>44519.478067129632</v>
       </c>
-      <c r="BN10" s="2"/>
-      <c r="BO10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>0</v>
+      </c>
       <c r="BP10" s="1">
         <v>0</v>
       </c>
@@ -5958,18 +5686,14 @@
       <c r="BR10" s="1">
         <v>0</v>
       </c>
-      <c r="BS10" s="1">
-        <v>0</v>
-      </c>
+      <c r="BS10" s="2"/>
       <c r="BT10" s="1">
         <v>0</v>
       </c>
       <c r="BU10" s="1">
         <v>0</v>
       </c>
-      <c r="BV10" s="1">
-        <v>0</v>
-      </c>
+      <c r="BV10" s="2"/>
       <c r="BW10" s="1">
         <v>0</v>
       </c>
@@ -5980,186 +5704,190 @@
       <c r="BZ10" s="1">
         <v>0</v>
       </c>
-      <c r="CA10" s="2"/>
-      <c r="CB10" s="1">
-        <v>0</v>
-      </c>
+      <c r="CA10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="CB10" s="2"/>
       <c r="CC10" s="2"/>
-      <c r="CD10" s="1">
-        <v>0</v>
+      <c r="CD10" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="CE10" s="1">
         <v>0</v>
       </c>
-      <c r="CF10" s="1">
-        <v>-1</v>
-      </c>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
+      <c r="CF10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>0</v>
+      </c>
       <c r="CI10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="CJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
+      </c>
+      <c r="CJ10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>1</v>
       </c>
       <c r="CL10" s="1">
         <v>0</v>
       </c>
-      <c r="CM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="CO10" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="CP10" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="CQ10" s="1">
+      <c r="CM10" s="2"/>
+      <c r="CN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="2"/>
+      <c r="CR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="1">
+        <v>10</v>
+      </c>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="CY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="2"/>
+      <c r="DA10" s="2"/>
+      <c r="DB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="1">
+        <v>64.45</v>
+      </c>
+      <c r="DD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DH10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DK10" s="2"/>
+      <c r="DL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM10" s="2"/>
+      <c r="DN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DO10" s="2"/>
+      <c r="DP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DT10" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="DU10" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DV10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DX10" s="2"/>
+      <c r="DY10" s="1">
+        <v>0</v>
+      </c>
+      <c r="DZ10" s="2"/>
+      <c r="EA10" s="2"/>
+      <c r="EB10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="1">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="2"/>
+      <c r="EF10" s="3">
+        <v>44484.64256547454</v>
+      </c>
+      <c r="EG10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EI10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="1">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="1">
         <v>1</v>
       </c>
-      <c r="CR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CS10" s="2"/>
-      <c r="CT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CU10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CW10" s="2"/>
-      <c r="CX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="CY10" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="CZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DB10" s="1">
-        <v>10</v>
-      </c>
-      <c r="DC10" s="2"/>
-      <c r="DD10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="DE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DF10" s="2"/>
-      <c r="DG10" s="2"/>
-      <c r="DH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DI10" s="1">
-        <v>64.45</v>
-      </c>
-      <c r="DJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DK10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DL10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DN10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DQ10" s="2"/>
-      <c r="DR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DS10" s="2"/>
-      <c r="DT10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DU10" s="2"/>
-      <c r="DV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DW10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DX10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DY10" s="1">
-        <v>0</v>
-      </c>
-      <c r="DZ10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="EA10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="EB10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EC10" s="1">
-        <v>0</v>
-      </c>
-      <c r="ED10" s="2"/>
-      <c r="EE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EF10" s="2"/>
-      <c r="EG10" s="2"/>
-      <c r="EH10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EI10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EJ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EK10" s="2"/>
-      <c r="EL10" s="3">
-        <v>44484.64256547454</v>
-      </c>
-      <c r="EM10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EN10" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="EO10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EP10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="ER10" s="1">
-        <v>0</v>
-      </c>
       <c r="ES10" s="1">
-        <v>0</v>
+        <v>31.45</v>
       </c>
       <c r="ET10" s="1">
         <v>0</v>
@@ -6167,17 +5895,11 @@
       <c r="EU10" s="1">
         <v>0</v>
       </c>
-      <c r="EV10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EW10" s="1">
-        <v>0</v>
-      </c>
-      <c r="EX10" s="1">
-        <v>1</v>
-      </c>
+      <c r="EV10" s="2"/>
+      <c r="EW10" s="2"/>
+      <c r="EX10" s="2"/>
       <c r="EY10" s="1">
-        <v>31.45</v>
+        <v>0</v>
       </c>
       <c r="EZ10" s="1">
         <v>0</v>
@@ -6185,12 +5907,14 @@
       <c r="FA10" s="1">
         <v>0</v>
       </c>
-      <c r="FB10" s="2"/>
+      <c r="FB10" s="1">
+        <v>0</v>
+      </c>
       <c r="FC10" s="2"/>
-      <c r="FD10" s="2"/>
-      <c r="FE10" s="1">
-        <v>0</v>
-      </c>
+      <c r="FD10" s="1">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="2"/>
       <c r="FF10" s="1">
         <v>0</v>
       </c>
@@ -6200,14 +5924,16 @@
       <c r="FH10" s="1">
         <v>0</v>
       </c>
-      <c r="FI10" s="2"/>
+      <c r="FI10" s="1">
+        <v>0</v>
+      </c>
       <c r="FJ10" s="1">
         <v>0</v>
       </c>
-      <c r="FK10" s="2"/>
-      <c r="FL10" s="1">
-        <v>0</v>
-      </c>
+      <c r="FK10" s="1">
+        <v>0</v>
+      </c>
+      <c r="FL10" s="2"/>
       <c r="FM10" s="1">
         <v>0</v>
       </c>
@@ -6220,10 +5946,10 @@
       <c r="FP10" s="1">
         <v>0</v>
       </c>
-      <c r="FQ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="FR10" s="2"/>
+      <c r="FQ10" s="2"/>
+      <c r="FR10" s="1">
+        <v>0</v>
+      </c>
       <c r="FS10" s="1">
         <v>0</v>
       </c>
@@ -6233,29 +5959,13 @@
       <c r="FU10" s="1">
         <v>0</v>
       </c>
-      <c r="FV10" s="1">
-        <v>0</v>
-      </c>
+      <c r="FV10" s="2"/>
       <c r="FW10" s="2"/>
-      <c r="FX10" s="1">
-        <v>0</v>
-      </c>
+      <c r="FX10" s="2"/>
       <c r="FY10" s="1">
         <v>0</v>
       </c>
       <c r="FZ10" s="1">
-        <v>0</v>
-      </c>
-      <c r="GA10" s="1">
-        <v>0</v>
-      </c>
-      <c r="GB10" s="2"/>
-      <c r="GC10" s="2"/>
-      <c r="GD10" s="2"/>
-      <c r="GE10" s="1">
-        <v>0</v>
-      </c>
-      <c r="GF10" s="1">
         <v>0</v>
       </c>
     </row>
